--- a/StructureDefinition-profile-TestReport.xlsx
+++ b/StructureDefinition-profile-TestReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="348">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.81345-06:00</t>
+    <t>2026-02-09T22:05:43.3840166-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -566,11 +566,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.testScript|0.0.1-snapshot-3}
+    <t>TestReport.testScript.extension:testScript</t>
+  </si>
+  <si>
+    <t>testScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for TestReport.testScript from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/TestScript in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TestReport.testScript` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `TestReport.testScript` is mapped to FHIR R4 element `TestReport.testScript`.</t>
   </si>
   <si>
     <t>TestReport.testScript.reference</t>
@@ -903,6 +916,30 @@
     <t>TestReport.setup.action.assert.extension</t>
   </si>
   <si>
+    <t>TestReport.setup.action.assert.extension:requirement</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup.action.assert.requirement|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TestReport.setup.action.assert.requirement from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Links or references providing traceability to the testing requirements for this assert.</t>
+  </si>
+  <si>
+    <t>Element `TestReport.setup.action.assert.requirement` is part of an existing definition because parent element `TestReport.setup.action.assert` requires a component extension (e.g., if this element is used as a content reference).
+Element `TestReport.setup.action.assert.requirement` is will have a context of TestReport.setup.action.assert based on following the parent source element upwards and mapping to `TestReport`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>TestReport.setup.action.assert.modifierExtension</t>
   </si>
   <si>
@@ -970,6 +1007,12 @@
     <t>TestReport.test.action.extension</t>
   </si>
   <si>
+    <t>TestReport.test.action.extension:action</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.test.action|0.0.1-snapshot-3}
 </t>
   </si>
@@ -977,8 +1020,7 @@
     <t>Cross-version extension for TestReport.test.action from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `TestReport.test.action` is mapped to FHIR R4 element `TestReport.test.action`.</t>
   </si>
   <si>
     <t>TestReport.test.action.modifierExtension</t>
@@ -1012,6 +1054,12 @@
   </si>
   <si>
     <t>TestReport.teardown.extension</t>
+  </si>
+  <si>
+    <t>TestReport.teardown.extension:teardown</t>
+  </si>
+  <si>
+    <t>teardown</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.teardown|0.0.1-snapshot-3}
@@ -1019,6 +1067,9 @@
   </si>
   <si>
     <t>Cross-version extension for TestReport.teardown from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TestReport.teardown` is mapped to FHIR R4 element `TestReport.teardown`.</t>
   </si>
   <si>
     <t>TestReport.teardown.modifierExtension</t>
@@ -1352,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM77"/>
+  <dimension ref="A1:AM78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1361,9 +1412,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.05078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1371,7 +1422,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="85.98828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3177,12 +3228,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3203,15 +3256,17 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3286,10 +3341,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3315,13 +3370,13 @@
         <v>149</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3371,7 +3426,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3380,7 +3435,7 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
@@ -3397,10 +3452,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3426,13 +3481,13 @@
         <v>100</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3458,13 +3513,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3482,7 +3537,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3508,10 +3563,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3537,13 +3592,13 @@
         <v>144</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3593,7 +3648,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3608,7 +3663,7 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3619,10 +3674,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3648,13 +3703,13 @@
         <v>149</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3704,7 +3759,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3730,10 +3785,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3759,13 +3814,13 @@
         <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3794,28 +3849,28 @@
         <v>158</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -3841,10 +3896,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3867,13 +3922,13 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3924,7 +3979,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3950,10 +4005,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3979,16 +4034,16 @@
         <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4037,7 +4092,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4063,10 +4118,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4089,16 +4144,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4148,7 +4203,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4166,18 +4221,18 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4200,13 +4255,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4257,7 +4312,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4283,10 +4338,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4392,10 +4447,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4424,7 +4479,7 @@
         <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N28" t="s" s="2">
         <v>135</v>
@@ -4503,14 +4558,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4532,10 +4587,10 @@
         <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>135</v>
@@ -4590,7 +4645,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4616,10 +4671,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4645,10 +4700,10 @@
         <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4678,10 +4733,10 @@
         <v>158</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4699,7 +4754,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
@@ -4725,10 +4780,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4754,10 +4809,10 @@
         <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4808,7 +4863,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4834,10 +4889,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4863,10 +4918,10 @@
         <v>149</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4917,7 +4972,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4943,10 +4998,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4969,13 +5024,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5026,7 +5081,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5052,10 +5107,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5161,10 +5216,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5193,7 +5248,7 @@
         <v>133</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>135</v>
@@ -5272,14 +5327,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5301,10 +5356,10 @@
         <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>135</v>
@@ -5359,7 +5414,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5385,10 +5440,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5411,16 +5466,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5470,7 +5525,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
@@ -5482,7 +5537,7 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5496,10 +5551,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5605,10 +5660,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5637,7 +5692,7 @@
         <v>133</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>135</v>
@@ -5716,14 +5771,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -5745,10 +5800,10 @@
         <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N40" t="s" s="2">
         <v>135</v>
@@ -5803,7 +5858,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5829,10 +5884,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5855,13 +5910,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5912,7 +5967,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5938,10 +5993,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6047,10 +6102,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6079,7 +6134,7 @@
         <v>133</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N43" t="s" s="2">
         <v>135</v>
@@ -6158,14 +6213,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6187,10 +6242,10 @@
         <v>132</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>135</v>
@@ -6245,7 +6300,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6271,10 +6326,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6300,10 +6355,10 @@
         <v>106</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6333,28 +6388,28 @@
         <v>158</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Z45" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
@@ -6380,10 +6435,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6406,13 +6461,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6463,7 +6518,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6489,10 +6544,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6518,10 +6573,10 @@
         <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6572,7 +6627,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6598,10 +6653,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6624,13 +6679,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6681,7 +6736,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6707,10 +6762,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6816,14 +6871,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -6845,14 +6900,12 @@
         <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -6889,16 +6942,14 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>176</v>
@@ -6916,7 +6967,7 @@
         <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6927,14 +6978,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="D51" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -6947,26 +7000,24 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>236</v>
+        <v>293</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -7014,7 +7065,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7023,13 +7074,13 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7040,42 +7091,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7099,13 +7154,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7123,22 +7178,22 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>286</v>
+        <v>241</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7149,10 +7204,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7160,7 +7215,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
@@ -7175,13 +7230,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7208,13 +7263,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7232,10 +7287,10 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>86</v>
@@ -7258,10 +7313,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7284,13 +7339,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7341,7 +7396,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7367,10 +7422,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7381,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7393,13 +7448,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7450,13 +7505,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7476,10 +7531,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7490,7 +7545,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7502,13 +7557,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>167</v>
+        <v>302</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>168</v>
+        <v>303</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7559,22 +7614,22 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7585,21 +7640,21 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7611,17 +7666,15 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7670,19 +7723,19 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
@@ -7696,14 +7749,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -7716,16 +7769,16 @@
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>236</v>
@@ -7733,9 +7786,7 @@
       <c r="N58" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O58" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -7783,7 +7834,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -7798,7 +7849,7 @@
         <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7809,42 +7860,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>297</v>
+        <v>239</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -7892,22 +7947,22 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -7918,10 +7973,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7947,10 +8002,10 @@
         <v>149</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8001,7 +8056,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8027,10 +8082,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8038,10 +8093,10 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8053,17 +8108,15 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8112,19 +8165,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8138,10 +8191,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8149,10 +8202,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8164,15 +8217,17 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8221,22 +8276,22 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8247,10 +8302,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8258,10 +8313,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8273,13 +8328,13 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8318,32 +8373,34 @@
         <v>76</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8354,10 +8411,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8380,17 +8437,15 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>257</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8427,16 +8482,14 @@
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>176</v>
@@ -8448,7 +8501,7 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>137</v>
@@ -8465,18 +8518,20 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>317</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="D65" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -8485,26 +8540,24 @@
         <v>76</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>320</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>235</v>
+        <v>321</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
       </c>
@@ -8552,7 +8605,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -8561,13 +8614,13 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8578,42 +8631,46 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>312</v>
+        <v>239</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -8661,22 +8718,22 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -8687,10 +8744,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8716,10 +8773,10 @@
         <v>79</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8770,7 +8827,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -8796,10 +8853,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8822,13 +8879,13 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8879,7 +8936,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -8905,10 +8962,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8931,13 +8988,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>167</v>
+        <v>330</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8988,7 +9045,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>169</v>
+        <v>329</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9000,10 +9057,10 @@
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9014,10 +9071,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9025,10 +9082,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -9040,13 +9097,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9085,32 +9142,34 @@
         <v>76</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC70" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9121,10 +9180,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9135,7 +9194,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9147,13 +9206,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>321</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>322</v>
+        <v>171</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>318</v>
+        <v>172</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9192,16 +9251,14 @@
         <v>76</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC71" s="2"/>
       <c r="AD71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>176</v>
@@ -9213,7 +9270,7 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>309</v>
+        <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>137</v>
@@ -9230,46 +9287,46 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D72" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>235</v>
+        <v>337</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>236</v>
+        <v>331</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9317,7 +9374,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -9326,13 +9383,13 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -9343,18 +9400,18 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>78</v>
@@ -9363,24 +9420,26 @@
         <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>227</v>
+        <v>132</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>76</v>
       </c>
@@ -9428,10 +9487,10 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
@@ -9440,10 +9499,10 @@
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -9454,10 +9513,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9465,10 +9524,10 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9480,15 +9539,17 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9537,22 +9598,22 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -9563,21 +9624,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9589,17 +9650,15 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9648,19 +9707,19 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>83</v>
@@ -9674,14 +9733,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -9694,16 +9753,16 @@
         <v>76</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>236</v>
@@ -9711,9 +9770,7 @@
       <c r="N76" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O76" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
       </c>
@@ -9761,7 +9818,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -9776,7 +9833,7 @@
         <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -9787,42 +9844,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
@@ -9870,27 +9931,136 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>330</v>
+        <v>241</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
+      <c r="AK78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-TestReport.xlsx
+++ b/StructureDefinition-profile-TestReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2745" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="352">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3840166-06:00</t>
+    <t>2026-02-17T14:42:26.9371392-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -583,7 +583,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TestReport.testScript` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `TestReport.testScript` is mapped to FHIR R4 element `TestReport.testScript`.</t>
+Element `TestReport.testScript` has is mapped to FHIR R4 element `TestReport.testScript`, but has no comparisons.</t>
   </si>
   <si>
     <t>TestReport.testScript.reference</t>
@@ -753,7 +753,24 @@
     <t>TestReport.participant.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>TestReport.participant.extension:participant</t>
+  </si>
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.participant|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TestReport.participant from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TestReport.participant` has is mapped to FHIR R4 element `TestReport.participant`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>TestReport.participant.modifierExtension</t>
@@ -818,6 +835,22 @@
     <t>TestReport.setup.extension</t>
   </si>
   <si>
+    <t>TestReport.setup.extension:setup</t>
+  </si>
+  <si>
+    <t>setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TestReport.setup from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TestReport.setup` has is mapped to FHIR R4 element `TestReport.setup`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>TestReport.setup.modifierExtension</t>
   </si>
   <si>
@@ -843,6 +876,9 @@
     <t>TestReport.setup.action.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>TestReport.setup.action.modifierExtension</t>
   </si>
   <si>
@@ -916,58 +952,50 @@
     <t>TestReport.setup.action.assert.extension</t>
   </si>
   <si>
-    <t>TestReport.setup.action.assert.extension:requirement</t>
-  </si>
-  <si>
-    <t>requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup.action.assert.requirement|0.0.1-snapshot-3}
+    <t>TestReport.setup.action.assert.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.assert.result</t>
+  </si>
+  <si>
+    <t>The result of this assertion.</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.assert.message</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.assert.detail</t>
+  </si>
+  <si>
+    <t>TestReport.test</t>
+  </si>
+  <si>
+    <t>A test executed from the test script</t>
+  </si>
+  <si>
+    <t>A test executed from the test script.</t>
+  </si>
+  <si>
+    <t>TestReport.test.id</t>
+  </si>
+  <si>
+    <t>TestReport.test.extension</t>
+  </si>
+  <si>
+    <t>TestReport.test.extension:test</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.test|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for TestReport.setup.action.assert.requirement from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Links or references providing traceability to the testing requirements for this assert.</t>
-  </si>
-  <si>
-    <t>Element `TestReport.setup.action.assert.requirement` is part of an existing definition because parent element `TestReport.setup.action.assert` requires a component extension (e.g., if this element is used as a content reference).
-Element `TestReport.setup.action.assert.requirement` is will have a context of TestReport.setup.action.assert based on following the parent source element upwards and mapping to `TestReport`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.assert.modifierExtension</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.assert.result</t>
-  </si>
-  <si>
-    <t>The result of this assertion.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.assert.message</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.assert.detail</t>
-  </si>
-  <si>
-    <t>TestReport.test</t>
-  </si>
-  <si>
-    <t>A test executed from the test script</t>
-  </si>
-  <si>
-    <t>A test executed from the test script.</t>
-  </si>
-  <si>
-    <t>TestReport.test.id</t>
-  </si>
-  <si>
-    <t>TestReport.test.extension</t>
+    <t>Cross-version extension for TestReport.test from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TestReport.test` has is mapped to FHIR R4 element `TestReport.test`, but has no comparisons.</t>
   </si>
   <si>
     <t>TestReport.test.modifierExtension</t>
@@ -1007,22 +1035,6 @@
     <t>TestReport.test.action.extension</t>
   </si>
   <si>
-    <t>TestReport.test.action.extension:action</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.test.action|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TestReport.test.action from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TestReport.test.action` is mapped to FHIR R4 element `TestReport.test.action`.</t>
-  </si>
-  <si>
     <t>TestReport.test.action.modifierExtension</t>
   </si>
   <si>
@@ -1069,7 +1081,7 @@
     <t>Cross-version extension for TestReport.teardown from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `TestReport.teardown` is mapped to FHIR R4 element `TestReport.teardown`.</t>
+    <t>Element `TestReport.teardown` has is mapped to FHIR R4 element `TestReport.teardown`, but has no comparisons.</t>
   </si>
   <si>
     <t>TestReport.teardown.modifierExtension</t>
@@ -1403,7 +1415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM78"/>
+  <dimension ref="A1:AM79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1412,9 +1424,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.51953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.74609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.05078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1422,7 +1434,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="103.3359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4454,7 +4466,7 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4476,14 +4488,12 @@
         <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4520,16 +4530,14 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>176</v>
@@ -4547,7 +4555,7 @@
         <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4558,14 +4566,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4578,26 +4588,24 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>239</v>
       </c>
       <c r="M29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4645,7 +4653,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4654,13 +4662,13 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4678,35 +4686,39 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4730,13 +4742,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4754,22 +4766,22 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4780,10 +4792,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4806,13 +4818,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4839,13 +4851,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4863,7 +4875,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -4889,10 +4901,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4900,7 +4912,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -4915,13 +4927,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4972,10 +4984,10 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>86</v>
@@ -4998,10 +5010,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5024,13 +5036,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5081,7 +5093,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5107,10 +5119,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5133,13 +5145,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5190,7 +5202,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5202,10 +5214,10 @@
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5216,21 +5228,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5242,17 +5254,15 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5301,19 +5311,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -5327,14 +5337,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5347,26 +5357,22 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5402,19 +5408,17 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5429,7 +5433,7 @@
         <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5440,21 +5444,23 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5466,16 +5472,16 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="N37" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5525,19 +5531,19 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5551,42 +5557,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5634,22 +5644,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5660,18 +5670,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -5686,16 +5696,16 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>135</v>
+        <v>271</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5745,10 +5755,10 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
@@ -5757,10 +5767,10 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>272</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5771,46 +5781,42 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5858,22 +5864,22 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5884,21 +5890,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5910,15 +5916,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5967,22 +5975,22 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5993,42 +6001,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6076,22 +6088,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6102,21 +6114,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6128,17 +6140,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6187,22 +6197,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>176</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6213,46 +6223,42 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6300,22 +6306,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6326,21 +6332,21 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6352,15 +6358,17 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>273</v>
+        <v>133</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6385,13 +6393,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6409,22 +6417,22 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>176</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6435,42 +6443,46 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6518,22 +6530,22 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6544,10 +6556,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6555,7 +6567,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -6570,13 +6582,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6603,13 +6615,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6627,10 +6639,10 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -6653,10 +6665,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6679,13 +6691,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6736,7 +6748,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6762,10 +6774,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6788,13 +6800,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>168</v>
+        <v>294</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6845,7 +6857,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>169</v>
+        <v>292</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6857,10 +6869,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6871,10 +6883,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6885,7 +6897,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -6897,13 +6909,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>171</v>
+        <v>296</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>172</v>
+        <v>297</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6942,29 +6954,31 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -6978,14 +6992,12 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>76</v>
       </c>
@@ -6994,7 +7006,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7006,17 +7018,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>292</v>
+        <v>167</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7065,22 +7075,22 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7091,14 +7101,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7111,26 +7121,24 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O52" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7178,7 +7186,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7193,7 +7201,7 @@
         <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7204,42 +7212,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7263,13 +7275,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7287,22 +7299,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7313,10 +7325,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7324,7 +7336,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7339,13 +7351,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>278</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7372,13 +7384,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7396,10 +7408,10 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7422,10 +7434,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7448,13 +7460,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7505,7 +7517,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7531,10 +7543,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7545,7 +7557,7 @@
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -7557,13 +7569,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7614,13 +7626,13 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
@@ -7640,10 +7652,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7654,7 +7666,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7666,13 +7678,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>167</v>
+        <v>306</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7723,22 +7735,22 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7749,21 +7761,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -7775,17 +7787,15 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -7834,19 +7844,19 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -7860,14 +7870,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -7880,26 +7890,22 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -7935,19 +7941,17 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -7962,7 +7966,7 @@
         <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -7973,12 +7977,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
       </c>
@@ -7987,7 +7993,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -7999,15 +8005,17 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>149</v>
+        <v>312</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8056,19 +8064,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>307</v>
+        <v>176</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8082,42 +8090,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8165,22 +8177,22 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>310</v>
+        <v>246</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8191,10 +8203,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8202,10 +8214,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
@@ -8217,17 +8229,15 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8276,19 +8286,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>315</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -8302,10 +8312,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8331,10 +8341,10 @@
         <v>149</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>167</v>
+        <v>320</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8385,7 +8395,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>169</v>
+        <v>319</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -8397,10 +8407,10 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8411,10 +8421,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8437,15 +8447,17 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>171</v>
+        <v>323</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8482,20 +8494,22 @@
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -8504,7 +8518,7 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>137</v>
+        <v>324</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -8518,23 +8532,21 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8546,17 +8558,15 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>320</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8605,22 +8615,22 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8631,14 +8641,14 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -8651,26 +8661,24 @@
         <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O66" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
       </c>
@@ -8718,7 +8726,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8733,7 +8741,7 @@
         <v>137</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>76</v>
@@ -8744,42 +8752,46 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -8827,22 +8839,22 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -8853,10 +8865,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8882,10 +8894,10 @@
         <v>79</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>286</v>
+        <v>330</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8936,7 +8948,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -8962,10 +8974,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8988,13 +9000,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9045,7 +9057,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9071,10 +9083,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9097,13 +9109,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9154,7 +9166,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>169</v>
+        <v>333</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9166,10 +9178,10 @@
         <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -9180,10 +9192,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9194,7 +9206,7 @@
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>76</v>
@@ -9206,13 +9218,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9251,32 +9263,34 @@
         <v>76</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9287,14 +9301,12 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>76</v>
       </c>
@@ -9303,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>76</v>
@@ -9315,17 +9327,15 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>337</v>
+        <v>171</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>76</v>
@@ -9362,16 +9372,14 @@
         <v>76</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="AC72" s="2"/>
       <c r="AD72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>176</v>
@@ -9383,7 +9391,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>137</v>
@@ -9400,46 +9408,46 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="C73" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>239</v>
+        <v>341</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
       </c>
@@ -9487,7 +9495,7 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -9496,13 +9504,13 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>76</v>
@@ -9513,18 +9521,18 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -9533,24 +9541,26 @@
         <v>76</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>341</v>
+        <v>244</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>342</v>
+        <v>245</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>76</v>
       </c>
@@ -9598,10 +9608,10 @@
         <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>340</v>
+        <v>246</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
@@ -9610,10 +9620,10 @@
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>76</v>
@@ -9624,10 +9634,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9635,10 +9645,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9650,15 +9660,17 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9707,22 +9719,22 @@
         <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>169</v>
+        <v>344</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>76</v>
@@ -9733,21 +9745,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>76</v>
@@ -9759,17 +9771,15 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>76</v>
@@ -9818,19 +9828,19 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>83</v>
@@ -9844,14 +9854,14 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>238</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -9864,26 +9874,24 @@
         <v>76</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O77" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>76</v>
       </c>
@@ -9931,7 +9939,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -9946,7 +9954,7 @@
         <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -9957,42 +9965,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>347</v>
+        <v>244</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>76</v>
       </c>
@@ -10040,27 +10052,136 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q79" s="2"/>
+      <c r="R79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
+      <c r="AK79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/StructureDefinition-profile-TestReport.xlsx
+++ b/StructureDefinition-profile-TestReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9371392-06:00</t>
+    <t>2026-02-20T11:59:20.9731608-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/TestReport</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -572,7 +572,7 @@
     <t>testScript</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+    <t xml:space="preserve">Extension {alternate-canonical}
 </t>
   </si>
   <si>
@@ -759,7 +759,7 @@
     <t>participant</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.participant|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.participant}
 </t>
   </si>
   <si>
@@ -841,7 +841,7 @@
     <t>setup</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup}
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
     <t>test</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.test|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.test}
 </t>
   </si>
   <si>
@@ -1074,7 +1074,7 @@
     <t>teardown</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.teardown|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.teardown}
 </t>
   </si>
   <si>
@@ -1434,7 +1434,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-profile-TestReport.xlsx
+++ b/StructureDefinition-profile-TestReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2779" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="304">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9731608-06:00</t>
+    <t>2026-02-21T13:36:54.3797733-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TestReport</t>
+    <t>http://hl7.org/fhir/StructureDefinition/TestReport|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -532,7 +532,88 @@
     <t>Ideally this is an absolute URL that is used to identify the version-specific TestScript that was executed, matching the `TestScript.url`.</t>
   </si>
   <si>
-    <t>TestReport.testScript.id</t>
+    <t>TestReport.result</t>
+  </si>
+  <si>
+    <t>pass | fail | pending</t>
+  </si>
+  <si>
+    <t>The overall result from the execution of the TestScript.</t>
+  </si>
+  <si>
+    <t>The pass and fail result represents a completed test script execution. The pending result represents a test script execution that has not yet started or is currently in progress.</t>
+  </si>
+  <si>
+    <t>The reported execution result.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-result-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>TestReport.score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>The final score (percentage of tests passed) resulting from the execution of the TestScript</t>
+  </si>
+  <si>
+    <t>The final score (percentage of tests passed) resulting from the execution of the TestScript.</t>
+  </si>
+  <si>
+    <t>TestReport.tester</t>
+  </si>
+  <si>
+    <t>Name of the tester producing this report (Organization or individual)</t>
+  </si>
+  <si>
+    <t>Name of the tester producing this report (Organization or individual).</t>
+  </si>
+  <si>
+    <t>Usually an organization, but may be an individual. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the TestReport.  May also allow for contact.</t>
+  </si>
+  <si>
+    <t>TestReport.issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the TestScript was executed and this TestReport was generated</t>
+  </si>
+  <si>
+    <t>When the TestScript was executed and this TestReport was generated.</t>
+  </si>
+  <si>
+    <t>Additional specific dates may be added as extensions.</t>
+  </si>
+  <si>
+    <t>BaseConformance.date</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>TestReport.participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>A participant in the test execution, either the execution engine, a client, or a server</t>
+  </si>
+  <si>
+    <t>A participant in the test execution, either the execution engine, a client, or a server.</t>
+  </si>
+  <si>
+    <t>TestReport.participant.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -544,7 +625,173 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>TestReport.testScript.extension</t>
+    <t>TestReport.participant.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>TestReport.participant.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestReport.participant.type</t>
+  </si>
+  <si>
+    <t>test-engine | client | server</t>
+  </si>
+  <si>
+    <t>The type of participant.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-participant-type|4.0.1</t>
+  </si>
+  <si>
+    <t>TestReport.participant.uri</t>
+  </si>
+  <si>
+    <t>The uri of the participant. An absolute URL is preferred</t>
+  </si>
+  <si>
+    <t>The uri of the participant. An absolute URL is preferred.</t>
+  </si>
+  <si>
+    <t>TestReport.participant.display</t>
+  </si>
+  <si>
+    <t>The display name of the participant</t>
+  </si>
+  <si>
+    <t>The display name of the participant.</t>
+  </si>
+  <si>
+    <t>TestReport.setup</t>
+  </si>
+  <si>
+    <t>The results of the series of required setup operations before the tests were executed</t>
+  </si>
+  <si>
+    <t>The results of the series of required setup operations before the tests were executed.</t>
+  </si>
+  <si>
+    <t>TestReport.setup.id</t>
+  </si>
+  <si>
+    <t>TestReport.setup.extension</t>
+  </si>
+  <si>
+    <t>TestReport.setup.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action</t>
+  </si>
+  <si>
+    <t>A setup operation or assert that was executed</t>
+  </si>
+  <si>
+    <t>Action would contain either an operation or an assertion.</t>
+  </si>
+  <si>
+    <t>An action should contain either an operation or an assertion but not both.  It can contain any number of variables.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+inv-1:Setup action SHALL contain either an operation or assert but not both. {operation.exists() xor assert.exists()}</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.id</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.extension</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.operation</t>
+  </si>
+  <si>
+    <t>The operation to perform</t>
+  </si>
+  <si>
+    <t>The operation performed.</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.operation.id</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.operation.extension</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.operation.modifierExtension</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.operation.result</t>
+  </si>
+  <si>
+    <t>pass | skip | fail | warning | error</t>
+  </si>
+  <si>
+    <t>The result of this operation.</t>
+  </si>
+  <si>
+    <t>The results of executing an action.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-action-result-codes|4.0.1</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.operation.message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>A message associated with the result</t>
+  </si>
+  <si>
+    <t>An explanatory message associated with the result.</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.operation.detail</t>
+  </si>
+  <si>
+    <t>A link to further details on the result</t>
+  </si>
+  <si>
+    <t>A link to further details on the result.</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.assert</t>
+  </si>
+  <si>
+    <t>The assertion to perform</t>
+  </si>
+  <si>
+    <t>The results of the assertion performed on the previous operations.</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.assert.id</t>
+  </si>
+  <si>
+    <t>TestReport.setup.action.assert.extension</t>
   </si>
   <si>
     <t>Extension</t>
@@ -557,401 +804,33 @@
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>TestReport.testScript.extension:testScript</t>
-  </si>
-  <si>
-    <t>testScript</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical}
+    <t>TestReport.setup.action.assert.extension:requirement</t>
+  </si>
+  <si>
+    <t>requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup.action.assert.requirement|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for TestReport.testScript from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/TestScript in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TestReport.testScript` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `TestReport.testScript` has is mapped to FHIR R4 element `TestReport.testScript`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>TestReport.testScript.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>TestReport.testScript.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>TestReport.testScript.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>TestReport.testScript.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>TestReport.result</t>
-  </si>
-  <si>
-    <t>pass | fail | pending</t>
-  </si>
-  <si>
-    <t>The overall result from the execution of the TestScript.</t>
-  </si>
-  <si>
-    <t>The pass and fail result represents a completed test script execution. The pending result represents a test script execution that has not yet started or is currently in progress.</t>
-  </si>
-  <si>
-    <t>The reported execution result.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-result-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>TestReport.score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal
-</t>
-  </si>
-  <si>
-    <t>The final score (percentage of tests passed) resulting from the execution of the TestScript</t>
-  </si>
-  <si>
-    <t>The final score (percentage of tests passed) resulting from the execution of the TestScript.</t>
-  </si>
-  <si>
-    <t>TestReport.tester</t>
-  </si>
-  <si>
-    <t>Name of the tester producing this report (Organization or individual)</t>
-  </si>
-  <si>
-    <t>Name of the tester producing this report (Organization or individual).</t>
-  </si>
-  <si>
-    <t>Usually an organization, but may be an individual. This item SHOULD be populated unless the information is available from context.</t>
-  </si>
-  <si>
-    <t>Helps establish the "authority/credibility" of the TestReport.  May also allow for contact.</t>
-  </si>
-  <si>
-    <t>TestReport.issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the TestScript was executed and this TestReport was generated</t>
-  </si>
-  <si>
-    <t>When the TestScript was executed and this TestReport was generated.</t>
-  </si>
-  <si>
-    <t>Additional specific dates may be added as extensions.</t>
-  </si>
-  <si>
-    <t>BaseConformance.date</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>TestReport.participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>A participant in the test execution, either the execution engine, a client, or a server</t>
-  </si>
-  <si>
-    <t>A participant in the test execution, either the execution engine, a client, or a server.</t>
-  </si>
-  <si>
-    <t>TestReport.participant.id</t>
-  </si>
-  <si>
-    <t>TestReport.participant.extension</t>
-  </si>
-  <si>
-    <t>TestReport.participant.extension:participant</t>
-  </si>
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.participant}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TestReport.participant from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TestReport.participant` has is mapped to FHIR R4 element `TestReport.participant`, but has no comparisons.</t>
+    <t>Cross-version extension for TestReport.setup.action.assert.requirement from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Links or references providing traceability to the testing requirements for this assert.</t>
+  </si>
+  <si>
+    <t>Element `TestReport.setup.action.assert.requirement` has a context of TestReport.setup.action.assert based on following the parent source element upwards and mapping to `TestReport`.
+Note available implied context: `TestReport.test.action.assert` because `TestReport.test.action.assert` is defined via a content reference to `TestReport.setup.action.assert`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>TestReport.participant.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>TestReport.participant.type</t>
-  </si>
-  <si>
-    <t>test-engine | client | server</t>
-  </si>
-  <si>
-    <t>The type of participant.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-participant-type|4.0.1</t>
-  </si>
-  <si>
-    <t>TestReport.participant.uri</t>
-  </si>
-  <si>
-    <t>The uri of the participant. An absolute URL is preferred</t>
-  </si>
-  <si>
-    <t>The uri of the participant. An absolute URL is preferred.</t>
-  </si>
-  <si>
-    <t>TestReport.participant.display</t>
-  </si>
-  <si>
-    <t>The display name of the participant</t>
-  </si>
-  <si>
-    <t>The display name of the participant.</t>
-  </si>
-  <si>
-    <t>TestReport.setup</t>
-  </si>
-  <si>
-    <t>The results of the series of required setup operations before the tests were executed</t>
-  </si>
-  <si>
-    <t>The results of the series of required setup operations before the tests were executed.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.id</t>
-  </si>
-  <si>
-    <t>TestReport.setup.extension</t>
-  </si>
-  <si>
-    <t>TestReport.setup.extension:setup</t>
-  </si>
-  <si>
-    <t>setup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.setup}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TestReport.setup from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TestReport.setup` has is mapped to FHIR R4 element `TestReport.setup`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.modifierExtension</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action</t>
-  </si>
-  <si>
-    <t>A setup operation or assert that was executed</t>
-  </si>
-  <si>
-    <t>Action would contain either an operation or an assertion.</t>
-  </si>
-  <si>
-    <t>An action should contain either an operation or an assertion but not both.  It can contain any number of variables.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-1:Setup action SHALL contain either an operation or assert but not both. {operation.exists() xor assert.exists()}</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.id</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.modifierExtension</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.operation</t>
-  </si>
-  <si>
-    <t>The operation to perform</t>
-  </si>
-  <si>
-    <t>The operation performed.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.operation.id</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.operation.extension</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.operation.modifierExtension</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.operation.result</t>
-  </si>
-  <si>
-    <t>pass | skip | fail | warning | error</t>
-  </si>
-  <si>
-    <t>The result of this operation.</t>
-  </si>
-  <si>
-    <t>The results of executing an action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-action-result-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.operation.message</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>A message associated with the result</t>
-  </si>
-  <si>
-    <t>An explanatory message associated with the result.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.operation.detail</t>
-  </si>
-  <si>
-    <t>A link to further details on the result</t>
-  </si>
-  <si>
-    <t>A link to further details on the result.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.assert</t>
-  </si>
-  <si>
-    <t>The assertion to perform</t>
-  </si>
-  <si>
-    <t>The results of the assertion performed on the previous operations.</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.assert.id</t>
-  </si>
-  <si>
-    <t>TestReport.setup.action.assert.extension</t>
-  </si>
-  <si>
     <t>TestReport.setup.action.assert.modifierExtension</t>
   </si>
   <si>
@@ -980,22 +859,6 @@
   </si>
   <si>
     <t>TestReport.test.extension</t>
-  </si>
-  <si>
-    <t>TestReport.test.extension:test</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.test}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TestReport.test from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TestReport.test` has is mapped to FHIR R4 element `TestReport.test`, but has no comparisons.</t>
   </si>
   <si>
     <t>TestReport.test.modifierExtension</t>
@@ -1066,22 +929,6 @@
   </si>
   <si>
     <t>TestReport.teardown.extension</t>
-  </si>
-  <si>
-    <t>TestReport.teardown.extension:teardown</t>
-  </si>
-  <si>
-    <t>teardown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TestReport.teardown}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TestReport.teardown from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TestReport.teardown` has is mapped to FHIR R4 element `TestReport.teardown`, but has no comparisons.</t>
   </si>
   <si>
     <t>TestReport.teardown.modifierExtension</t>
@@ -1415,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM79"/>
+  <dimension ref="A1:AM69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1424,9 +1271,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.74609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.05078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1434,7 +1281,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1448,11 +1295,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="30.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.2109375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="36.07421875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3033,7 +2880,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3045,10 +2892,10 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>167</v>
@@ -3056,7 +2903,9 @@
       <c r="M15" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3081,13 +2930,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3105,10 +2954,10 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3117,10 +2966,10 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>76</v>
@@ -3131,10 +2980,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3142,10 +2991,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -3154,16 +3003,16 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3202,31 +3051,31 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>173</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
@@ -3240,20 +3089,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3265,21 +3112,23 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
       </c>
@@ -3333,13 +3182,13 @@
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
@@ -3353,10 +3202,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3379,16 +3228,16 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3438,7 +3287,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3447,27 +3296,27 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3478,7 +3327,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3487,10 +3336,10 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>190</v>
@@ -3498,9 +3347,7 @@
       <c r="M19" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>192</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3525,13 +3372,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>195</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3549,13 +3396,13 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3564,7 +3411,7 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
@@ -3575,10 +3422,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3598,20 +3445,18 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3660,7 +3505,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3672,10 +3517,10 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3686,21 +3531,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3709,19 +3554,19 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3771,22 +3616,22 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3797,44 +3642,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3858,13 +3705,13 @@
         <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>76</v>
@@ -3882,22 +3729,22 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
@@ -3908,10 +3755,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3919,7 +3766,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>86</v>
@@ -3931,16 +3778,16 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3967,13 +3814,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3991,10 +3838,10 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>86</v>
@@ -4017,10 +3864,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4028,7 +3875,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
@@ -4040,23 +3887,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4104,10 +3947,10 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>86</v>
@@ -4130,10 +3973,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4153,20 +3996,18 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4215,7 +4056,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4233,18 +4074,18 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4255,7 +4096,7 @@
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4267,13 +4108,13 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4324,13 +4165,13 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
@@ -4350,10 +4191,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4379,10 +4220,10 @@
         <v>149</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4433,7 +4274,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4459,14 +4300,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4488,12 +4329,14 @@
         <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4530,17 +4373,19 @@
         <v>76</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4555,7 +4400,7 @@
         <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
@@ -4566,16 +4411,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -4588,24 +4431,26 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>76</v>
       </c>
@@ -4653,7 +4498,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4662,13 +4507,13 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4679,18 +4524,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -4699,26 +4544,24 @@
         <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4766,10 +4609,10 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
@@ -4778,10 +4621,10 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4792,10 +4635,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4803,7 +4646,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>86</v>
@@ -4818,13 +4661,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4851,13 +4694,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -4875,10 +4718,10 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>86</v>
@@ -4887,10 +4730,10 @@
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4901,21 +4744,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4927,15 +4770,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>252</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4984,22 +4829,22 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>251</v>
+        <v>198</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -5010,42 +4855,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5093,22 +4942,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5119,10 +4968,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5145,13 +4994,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5202,7 +5051,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5228,10 +5077,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5257,10 +5106,10 @@
         <v>149</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5311,7 +5160,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5337,14 +5186,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5366,12 +5215,14 @@
         <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5408,17 +5259,19 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5433,7 +5286,7 @@
         <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>76</v>
@@ -5444,46 +5297,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5531,7 +5384,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5540,13 +5393,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
@@ -5557,46 +5410,42 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5620,13 +5469,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5644,22 +5493,22 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
@@ -5670,10 +5519,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5681,10 +5530,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5696,17 +5545,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5755,19 +5602,19 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>272</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -5781,10 +5628,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5807,13 +5654,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>168</v>
+        <v>245</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5864,7 +5711,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>169</v>
+        <v>243</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5876,10 +5723,10 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5890,21 +5737,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5916,17 +5763,15 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5975,22 +5820,22 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6001,46 +5846,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6088,22 +5929,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>246</v>
+        <v>195</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6114,10 +5955,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6128,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6140,13 +5981,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6185,31 +6026,29 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6223,12 +6062,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6237,7 +6078,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6249,15 +6090,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>149</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6306,22 +6149,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6332,14 +6175,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6352,24 +6195,26 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6417,7 +6262,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6432,7 +6277,7 @@
         <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6443,46 +6288,42 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6506,13 +6347,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6530,22 +6371,22 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6556,10 +6397,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6567,7 +6408,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -6582,13 +6423,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6615,13 +6456,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6639,10 +6480,10 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>86</v>
@@ -6665,10 +6506,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6691,13 +6532,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>149</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6748,7 +6589,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6774,10 +6615,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6788,7 +6629,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6800,13 +6641,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6857,13 +6698,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -6883,10 +6724,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6909,13 +6750,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>231</v>
+        <v>149</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>296</v>
+        <v>193</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6966,7 +6807,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>295</v>
+        <v>195</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -6978,10 +6819,10 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6992,21 +6833,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7018,15 +6859,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7075,19 +6918,19 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -7101,14 +6944,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>131</v>
+        <v>200</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7121,24 +6964,26 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>275</v>
+        <v>202</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -7186,7 +7031,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7201,7 +7046,7 @@
         <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7212,46 +7057,42 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7299,22 +7140,22 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7325,10 +7166,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7336,7 +7177,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>86</v>
@@ -7351,13 +7192,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>302</v>
+        <v>278</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7384,13 +7225,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7408,10 +7249,10 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7434,10 +7275,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7445,10 +7286,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7460,15 +7301,17 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7517,19 +7360,19 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>281</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7543,10 +7386,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7572,10 +7415,10 @@
         <v>149</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>293</v>
+        <v>193</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>294</v>
+        <v>194</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7626,7 +7469,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>304</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7638,10 +7481,10 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
@@ -7652,14 +7495,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -7678,15 +7521,17 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>306</v>
+        <v>133</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7735,7 +7580,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7747,10 +7592,10 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
@@ -7761,42 +7606,46 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -7844,22 +7693,22 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
@@ -7870,10 +7719,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7884,7 +7733,7 @@
         <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>76</v>
@@ -7896,13 +7745,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7941,29 +7790,31 @@
         <v>76</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>176</v>
+        <v>285</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -7977,14 +7828,12 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>76</v>
       </c>
@@ -7993,7 +7842,7 @@
         <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>76</v>
@@ -8005,17 +7854,15 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8064,19 +7911,19 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>176</v>
+        <v>288</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8090,46 +7937,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>243</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>244</v>
+        <v>291</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8177,22 +8020,22 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8203,10 +8046,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8232,10 +8075,10 @@
         <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>317</v>
+        <v>193</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>318</v>
+        <v>194</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8286,7 +8129,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>316</v>
+        <v>195</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8298,10 +8141,10 @@
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8312,21 +8155,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>319</v>
+        <v>294</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>76</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>76</v>
@@ -8338,15 +8181,17 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>320</v>
+        <v>133</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -8395,22 +8240,22 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>319</v>
+        <v>198</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -8421,18 +8266,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>78</v>
@@ -8441,24 +8286,26 @@
         <v>76</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>231</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>323</v>
+        <v>201</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>76</v>
       </c>
@@ -8506,10 +8353,10 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>322</v>
+        <v>203</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>78</v>
@@ -8518,10 +8365,10 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>324</v>
+        <v>137</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>76</v>
@@ -8532,10 +8379,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8543,10 +8390,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8558,15 +8405,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>167</v>
+        <v>297</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8615,22 +8464,22 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>169</v>
+        <v>296</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8641,21 +8490,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8667,17 +8516,15 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -8726,19 +8573,19 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>83</v>
@@ -8752,14 +8599,14 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -8772,26 +8619,24 @@
         <v>76</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>244</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="O67" t="s" s="2">
-        <v>141</v>
-      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
       </c>
@@ -8839,7 +8684,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>246</v>
+        <v>198</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -8854,7 +8699,7 @@
         <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -8865,42 +8710,46 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>76</v>
       </c>
@@ -8948,22 +8797,22 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>328</v>
+        <v>203</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -8974,10 +8823,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8985,7 +8834,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>86</v>
@@ -9003,10 +8852,10 @@
         <v>79</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9057,10 +8906,10 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>86</v>
@@ -9078,1110 +8927,6 @@
         <v>76</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AC72" s="2"/>
-      <c r="AD72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM79" t="s" s="2">
         <v>76</v>
       </c>
     </row>
